--- a/EnglishBuildWordsGameData.xlsx
+++ b/EnglishBuildWordsGameData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishti\source\repos\EnglishGame1\EnglishGame1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishti\source\repos\final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC93E05-BDEC-4BFD-85A9-55488C96E913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FBB6E4-A6E4-44FA-B298-F81B37F13E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="159">
   <si>
     <t>Groups</t>
   </si>
@@ -48,300 +48,210 @@
     <t>star</t>
   </si>
   <si>
+    <t>clapd</t>
+  </si>
+  <si>
+    <t>clap</t>
+  </si>
+  <si>
+    <t>pad</t>
+  </si>
+  <si>
+    <t>lad</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>pint</t>
+  </si>
+  <si>
+    <t>trip</t>
+  </si>
+  <si>
+    <t>rip</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>cap</t>
+  </si>
+  <si>
+    <t>lap</t>
+  </si>
+  <si>
+    <t>pal</t>
+  </si>
+  <si>
+    <t>cad</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>tip</t>
+  </si>
+  <si>
+    <t>pit</t>
+  </si>
+  <si>
+    <t>tin</t>
+  </si>
+  <si>
+    <t>rat</t>
+  </si>
+  <si>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>toes</t>
+  </si>
+  <si>
+    <t>nets</t>
+  </si>
+  <si>
+    <t>sone</t>
+  </si>
+  <si>
+    <t>ones</t>
+  </si>
+  <si>
+    <t>nest</t>
+  </si>
+  <si>
+    <t>tone</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
+    <t>pat</t>
+  </si>
+  <si>
+    <t>tap</t>
+  </si>
+  <si>
+    <t>nap</t>
+  </si>
+  <si>
+    <t>pain</t>
+  </si>
+  <si>
+    <t>anti</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>oat</t>
+  </si>
+  <si>
+    <t>flota</t>
+  </si>
+  <si>
+    <t>foal</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>lobe</t>
+  </si>
+  <si>
+    <t>cole</t>
+  </si>
+  <si>
+    <t>sole</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>rib</t>
+  </si>
+  <si>
+    <t>rig</t>
+  </si>
+  <si>
+    <t>bin</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>brig</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>bring</t>
+  </si>
+  <si>
+    <t>bed</t>
+  </si>
+  <si>
+    <t>led</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>den</t>
+  </si>
+  <si>
+    <t>lend</t>
+  </si>
+  <si>
+    <t>bend</t>
+  </si>
+  <si>
+    <t>blend</t>
+  </si>
+  <si>
     <t>tear</t>
   </si>
   <si>
     <t>rest</t>
   </si>
   <si>
-    <t>clapd</t>
-  </si>
-  <si>
-    <t>clap</t>
-  </si>
-  <si>
-    <t>pad</t>
-  </si>
-  <si>
-    <t>lad</t>
-  </si>
-  <si>
-    <t>print</t>
-  </si>
-  <si>
-    <t>pint</t>
-  </si>
-  <si>
-    <t>trip</t>
-  </si>
-  <si>
-    <t>rip</t>
-  </si>
-  <si>
-    <t>blend</t>
-  </si>
-  <si>
-    <t>bend</t>
-  </si>
-  <si>
-    <t>lend</t>
-  </si>
-  <si>
-    <t>den</t>
-  </si>
-  <si>
-    <t>bring</t>
-  </si>
-  <si>
-    <t>ring</t>
-  </si>
-  <si>
-    <t>grin</t>
-  </si>
-  <si>
-    <t>brig</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>lose</t>
-  </si>
-  <si>
-    <t>sole</t>
-  </si>
-  <si>
-    <t>cole</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>loaf</t>
-  </si>
-  <si>
-    <t>aloft</t>
-  </si>
-  <si>
-    <t>alto</t>
-  </si>
-  <si>
     <t>rates</t>
   </si>
   <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>ear</t>
-  </si>
-  <si>
     <t>art</t>
   </si>
   <si>
-    <t>sat</t>
-  </si>
-  <si>
-    <t>cap</t>
-  </si>
-  <si>
-    <t>lap</t>
-  </si>
-  <si>
-    <t>pal</t>
-  </si>
-  <si>
-    <t>cad</t>
-  </si>
-  <si>
-    <t>al</t>
-  </si>
-  <si>
-    <t>pin</t>
-  </si>
-  <si>
-    <t>tip</t>
-  </si>
-  <si>
-    <t>nit</t>
-  </si>
-  <si>
-    <t>pit</t>
-  </si>
-  <si>
-    <t>tin</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>led</t>
-  </si>
-  <si>
-    <t>bed</t>
-  </si>
-  <si>
-    <t>neb</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>bin</t>
-  </si>
-  <si>
-    <t>rig</t>
-  </si>
-  <si>
-    <t>rib</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>lobe</t>
-  </si>
-  <si>
-    <t>sec</t>
-  </si>
-  <si>
-    <t>cos</t>
-  </si>
-  <si>
-    <t>flat</t>
-  </si>
-  <si>
-    <t>foal</t>
-  </si>
-  <si>
-    <t>flota</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>oat</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>anti</t>
-  </si>
-  <si>
-    <t>pain</t>
-  </si>
-  <si>
-    <t>nap</t>
-  </si>
-  <si>
-    <t>tap</t>
-  </si>
-  <si>
-    <t>pat</t>
-  </si>
-  <si>
-    <t>tan</t>
-  </si>
-  <si>
-    <t>grand</t>
-  </si>
-  <si>
-    <t>drag</t>
-  </si>
-  <si>
-    <t>rang</t>
-  </si>
-  <si>
-    <t>darn</t>
-  </si>
-  <si>
-    <t>rad</t>
-  </si>
-  <si>
-    <t>nag</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>rag</t>
-  </si>
-  <si>
-    <t>ran</t>
-  </si>
-  <si>
-    <t>stone</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>tone</t>
-  </si>
-  <si>
-    <t>nest</t>
-  </si>
-  <si>
-    <t>ones</t>
-  </si>
-  <si>
-    <t>sone</t>
-  </si>
-  <si>
-    <t>nets</t>
-  </si>
-  <si>
-    <t>toes</t>
-  </si>
-  <si>
-    <t>sent</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>arch</t>
-  </si>
-  <si>
-    <t>char</t>
-  </si>
-  <si>
-    <t>cram</t>
-  </si>
-  <si>
-    <t>harm</t>
-  </si>
-  <si>
-    <t>cam</t>
+    <t>tea</t>
   </si>
   <si>
     <t>arm</t>
   </si>
   <si>
-    <t>ham</t>
-  </si>
-  <si>
     <t>arc</t>
   </si>
   <si>
-    <t>climb</t>
-  </si>
-  <si>
-    <t>limb</t>
-  </si>
-  <si>
-    <t>mil</t>
-  </si>
-  <si>
-    <t>mib</t>
-  </si>
-  <si>
-    <t>lib</t>
-  </si>
-  <si>
-    <t>ic</t>
-  </si>
-  <si>
     <t>light</t>
   </si>
   <si>
@@ -351,18 +261,12 @@
     <t>hit</t>
   </si>
   <si>
-    <t>lit</t>
-  </si>
-  <si>
     <t>til</t>
   </si>
   <si>
     <t>git</t>
   </si>
   <si>
-    <t>thig</t>
-  </si>
-  <si>
     <t>frame</t>
   </si>
   <si>
@@ -423,24 +327,12 @@
     <t>car</t>
   </si>
   <si>
+    <t>real</t>
+  </si>
+  <si>
     <t>blank</t>
   </si>
   <si>
-    <t>bank</t>
-  </si>
-  <si>
-    <t>lank</t>
-  </si>
-  <si>
-    <t>nab</t>
-  </si>
-  <si>
-    <t>lab</t>
-  </si>
-  <si>
-    <t>nabk</t>
-  </si>
-  <si>
     <t>snake</t>
   </si>
   <si>
@@ -471,37 +363,145 @@
     <t>earth</t>
   </si>
   <si>
-    <t>hare</t>
-  </si>
-  <si>
     <t>heat</t>
   </si>
   <si>
     <t>hat</t>
   </si>
   <si>
-    <t>rat</t>
-  </si>
-  <si>
-    <t>space</t>
-  </si>
-  <si>
-    <t>cape</t>
-  </si>
-  <si>
-    <t>caps</t>
-  </si>
-  <si>
-    <t>pace</t>
-  </si>
-  <si>
-    <t>ace</t>
-  </si>
-  <si>
-    <t>peac</t>
-  </si>
-  <si>
-    <t>spa</t>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>lie</t>
+  </si>
+  <si>
+    <t>mile</t>
+  </si>
+  <si>
+    <t>slim</t>
+  </si>
+  <si>
+    <t>lime</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>semi</t>
+  </si>
+  <si>
+    <t>isle</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>her</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>fed</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>nerd</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>ears</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>tears</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>tight</t>
+  </si>
+  <si>
+    <t>gilt</t>
+  </si>
+  <si>
+    <t>scole</t>
+  </si>
+  <si>
+    <t>cel</t>
+  </si>
+  <si>
+    <t>compu</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>coop</t>
+  </si>
+  <si>
+    <t>coup</t>
+  </si>
+  <si>
+    <t>mop</t>
+  </si>
+  <si>
+    <t>pomp</t>
+  </si>
+  <si>
+    <t>ump</t>
+  </si>
+  <si>
+    <t>cpu</t>
+  </si>
+  <si>
+    <t>fat</t>
+  </si>
+  <si>
+    <t>loft</t>
   </si>
 </sst>
 </file>
@@ -831,15 +831,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -856,7 +856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -867,598 +867,646 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="J2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I14" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
